--- a/InputFiles/TC01_CDS_Filter_Platform-BGISEQ.xlsx
+++ b/InputFiles/TC01_CDS_Filter_Platform-BGISEQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B33FE-CDD5-497B-881F-CA6079DB9273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13E5F2-5B51-4E40-8402-86F31DEE9C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -77,20 +77,6 @@
     <t>Match (f)&lt;--(g:genomic_info)
 WHERE g.platform in ['BGISEQ']
 MATCH (f)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
-WITH p, s, collect(distinct samp.sample_id) as samp
-RETURN 
-    coalesce(p.participant_id,'') as `Participant ID`,
-    coalesce(s.study_name, '') as `Study Name`,
-    coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.gender,'') as `Gender`,
-    coalesce(apoc.text.join(samp, ','), '') as `Samples`
-ORDER BY `Participant ID`
-LIMIT 100</t>
-  </si>
-  <si>
-    <t>Match (f)&lt;--(g:genomic_info)
-WHERE g.platform in ['BGISEQ']
-MATCH (f)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
 WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
 RETURN  
  coalesce(samp.sample_id, '') as `Sample ID`,
@@ -114,6 +100,26 @@
     coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(f.file_type, '') as `File Type`
    ORDER By f.file_name LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH s, p, samp, f, g, diag
+WHERE g.platform in ['BGISEQ']
+with p
+OPTIONAL MATCH (p)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
+RETURN
+coalesce(p.participant_id,'') as `Participant ID`,
+coalesce(s.study_name, '') as `Study Name`,
+coalesce(s.phs_accession,'') as `Accession`,
+coalesce(p.gender,'') as `Gender`,
+coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY p.participant_id LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -495,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,12 +530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="279" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -546,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -563,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
